--- a/src/results/unified_results_20_prompt_other_possibilities_expanded_3_types.xlsx
+++ b/src/results/unified_results_20_prompt_other_possibilities_expanded_3_types.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/roeeesquira/PycharmProjects/possibilities/src/results/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13096F9F-BB95-3345-9A6B-47F2DE1DD43E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F52FAF2-A0FE-6E48-8C35-E5E3B9A9C744}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="21800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2515,19 +2515,6 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Original Answer: Yes
-To Change the Answer to 'No':
-Here are several ways to rephrase Text 1 to change the answer to "no":
-* **Remove the specificity:** "Retailers sometimes consider stocking items on shelves."  (This weakens the definitive "must" and introduces uncertainty.)
-* **Introduce a contradiction:** "After completing the process of developing a demand forecast for each SKU, a retailer avoids stocking any items on shelves and uses a purely online model." (This directly contradicts the hypothesis.)
-* **Change the subject:** "Wholesalers develop complex logistical strategies." (This shifts the focus away from retailers and shelf stocking.)
-* **Focus on a different aspect of retail:** "After completing the process of developing a demand forecast for each SKU, a retailer must determine the optimal marketing strategy." (This still discusses retail but avoids the topic of shelf stocking.)
-* **Introduce a conditional:** "If a retailer chooses to use physical stores, they must determine how much of each item to stock on the shelves." (This makes shelf stocking a possibility, not a certainty.)
-* **Restrict the scope:** "After completing the process of developing a demand forecast for each SKU, *online* retailers must determine how much of each item to stock in their *virtual* warehouses." (This changes the context so the hypothesis no longer applies.)
-The key is to either weaken the original statement, introduce a contradiction, or change the subject matter so that the hypothesis is no longer a necessary consequence of the premise.
-</t>
-  </si>
-  <si>
     <t xml:space="preserve">**Step 1: Original Answer**
 The original relationship between Text 1 and Text 2 is **Entailment**. Text 1 explicitly states that there is an "avoidance of pupil comparisons" on Israeli kibbutzim, which directly implies that children are less likely to be compared there than in American schools where such avoidance isn't mentioned.
 **Step 2: Modify Text 1 to Change the Answer**
@@ -3490,6 +3477,18 @@
   </si>
   <si>
     <t>success with other possibilities</t>
+  </si>
+  <si>
+    <t>Original Answer: Yes
+To Change the Answer to 'No':
+Here are several ways to rephrase Text 1 to change the answer to "no":
+* **Remove the specificity:** "Retailers sometimes consider stocking items on shelves."  (This weakens the definitive "must" and introduces uncertainty.)
+* **Introduce a contradiction:** "After completing the process of developing a demand forecast for each SKU, a retailer avoids stocking any items on shelves and uses a purely online model." (This directly contradicts the hypothesis.)
+* **Change the subject:** "Wholesalers develop complex logistical strategies." (This shifts the focus away from retailers and shelf stocking.)
+* **Focus on a different aspect of retail:** "After completing the process of developing a demand forecast for each SKU, a retailer must determine the optimal marketing strategy." (This still discusses retail but avoids the topic of shelf stocking.)
+* **Introduce a conditional:** "If a retailer chooses to use physical stores, they must determine how much of each item to stock on the shelves." (This makes shelf stocking a possibility, not a certainty.)
+* **Restrict the scope:** "After completing the process of developing a demand forecast for each SKU, *online* retailers must determine how much of each item to stock in their *virtual* warehouses." (This changes the context so the hypothesis no longer applies.)
+The key is to either weaken the original statement, introduce a contradiction, or change the subject matter so that the hypothesis is no longer a necessary consequence of the premise.</t>
   </si>
 </sst>
 </file>
@@ -3879,8 +3878,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I181"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="G47" sqref="G47"/>
+    <sheetView tabSelected="1" topLeftCell="A93" workbookViewId="0">
+      <selection activeCell="H93" sqref="H93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3916,10 +3915,10 @@
         <v>5</v>
       </c>
       <c r="G1" s="3" t="s">
+        <v>298</v>
+      </c>
+      <c r="H1" s="3" t="s">
         <v>299</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>300</v>
       </c>
       <c r="I1" s="3" t="s">
         <v>6</v>
@@ -4029,7 +4028,7 @@
         <v>31</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="G5" s="4" t="b">
         <v>1</v>
@@ -4058,7 +4057,7 @@
         <v>34</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="G6" s="4" t="b">
         <v>1</v>
@@ -4087,7 +4086,7 @@
         <v>18</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="G7" s="4" t="b">
         <v>1</v>
@@ -4101,7 +4100,7 @@
     </row>
     <row r="8" spans="1:9" ht="216" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B8" s="4" t="s">
         <v>129</v>
@@ -4116,7 +4115,7 @@
         <v>31</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="G8" s="4" t="b">
         <v>1</v>
@@ -4130,7 +4129,7 @@
     </row>
     <row r="9" spans="1:9" ht="234" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B9" s="4" t="s">
         <v>129</v>
@@ -4145,7 +4144,7 @@
         <v>34</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="G9" s="4" t="b">
         <v>1</v>
@@ -4159,7 +4158,7 @@
     </row>
     <row r="10" spans="1:9" ht="180" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B10" s="4" t="s">
         <v>129</v>
@@ -4174,7 +4173,7 @@
         <v>18</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="G10" s="4" t="b">
         <v>1</v>
@@ -4290,7 +4289,7 @@
         <v>31</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="G14" s="4" t="b">
         <v>0</v>
@@ -4319,7 +4318,7 @@
         <v>34</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="G15" s="4" t="b">
         <v>0</v>
@@ -4348,7 +4347,7 @@
         <v>18</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="G16" s="4" t="b">
         <v>1</v>
@@ -4362,7 +4361,7 @@
     </row>
     <row r="17" spans="1:9" ht="216" x14ac:dyDescent="0.2">
       <c r="A17" s="5" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B17" s="4" t="s">
         <v>73</v>
@@ -4377,7 +4376,7 @@
         <v>31</v>
       </c>
       <c r="F17" s="4" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="G17" s="4" t="b">
         <v>1</v>
@@ -4391,7 +4390,7 @@
     </row>
     <row r="18" spans="1:9" ht="216" x14ac:dyDescent="0.2">
       <c r="A18" s="5" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B18" s="4" t="s">
         <v>73</v>
@@ -4406,7 +4405,7 @@
         <v>34</v>
       </c>
       <c r="F18" s="4" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="G18" s="4" t="b">
         <v>1</v>
@@ -4420,7 +4419,7 @@
     </row>
     <row r="19" spans="1:9" ht="162" x14ac:dyDescent="0.2">
       <c r="A19" s="5" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B19" s="4" t="s">
         <v>73</v>
@@ -4435,7 +4434,7 @@
         <v>18</v>
       </c>
       <c r="F19" s="4" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="G19" s="4" t="b">
         <v>1</v>
@@ -4551,7 +4550,7 @@
         <v>11</v>
       </c>
       <c r="F23" s="4" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="G23" s="4" t="b">
         <v>0</v>
@@ -4580,7 +4579,7 @@
         <v>11</v>
       </c>
       <c r="F24" s="4" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="G24" s="4" t="b">
         <v>0</v>
@@ -4609,7 +4608,7 @@
         <v>18</v>
       </c>
       <c r="F25" s="4" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="G25" s="4" t="b">
         <v>0</v>
@@ -4623,7 +4622,7 @@
     </row>
     <row r="26" spans="1:9" ht="270" x14ac:dyDescent="0.2">
       <c r="A26" s="5" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B26" s="4" t="s">
         <v>161</v>
@@ -4638,7 +4637,7 @@
         <v>11</v>
       </c>
       <c r="F26" s="4" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="G26" s="4" t="b">
         <v>0</v>
@@ -4652,7 +4651,7 @@
     </row>
     <row r="27" spans="1:9" ht="377" x14ac:dyDescent="0.2">
       <c r="A27" s="5" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B27" s="4" t="s">
         <v>161</v>
@@ -4667,7 +4666,7 @@
         <v>11</v>
       </c>
       <c r="F27" s="4" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="G27" s="4" t="b">
         <v>0</v>
@@ -4681,7 +4680,7 @@
     </row>
     <row r="28" spans="1:9" ht="216" x14ac:dyDescent="0.2">
       <c r="A28" s="5" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B28" s="4" t="s">
         <v>161</v>
@@ -4696,7 +4695,7 @@
         <v>18</v>
       </c>
       <c r="F28" s="4" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="G28" s="4" t="b">
         <v>0</v>
@@ -4884,7 +4883,7 @@
     </row>
     <row r="35" spans="1:9" ht="252" x14ac:dyDescent="0.2">
       <c r="A35" s="5" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B35" s="4" t="s">
         <v>7</v>
@@ -4899,7 +4898,7 @@
         <v>11</v>
       </c>
       <c r="F35" s="4" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="G35" s="4" t="b">
         <v>0</v>
@@ -4913,7 +4912,7 @@
     </row>
     <row r="36" spans="1:9" ht="252" x14ac:dyDescent="0.2">
       <c r="A36" s="5" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B36" s="4" t="s">
         <v>7</v>
@@ -4928,7 +4927,7 @@
         <v>11</v>
       </c>
       <c r="F36" s="4" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="G36" s="4" t="b">
         <v>0</v>
@@ -4942,7 +4941,7 @@
     </row>
     <row r="37" spans="1:9" ht="180" x14ac:dyDescent="0.2">
       <c r="A37" s="5" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B37" s="4" t="s">
         <v>7</v>
@@ -4957,7 +4956,7 @@
         <v>18</v>
       </c>
       <c r="F37" s="4" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="G37" s="4" t="b">
         <v>0</v>
@@ -5073,7 +5072,7 @@
         <v>11</v>
       </c>
       <c r="F41" s="4" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="G41" s="4" t="b">
         <v>1</v>
@@ -5102,7 +5101,7 @@
         <v>11</v>
       </c>
       <c r="F42" s="4" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="G42" s="4" t="b">
         <v>0</v>
@@ -5131,7 +5130,7 @@
         <v>18</v>
       </c>
       <c r="F43" s="4" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="G43" s="4" t="b">
         <v>1</v>
@@ -5145,7 +5144,7 @@
     </row>
     <row r="44" spans="1:9" ht="234" x14ac:dyDescent="0.2">
       <c r="A44" s="5" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B44" s="4" t="s">
         <v>137</v>
@@ -5160,7 +5159,7 @@
         <v>11</v>
       </c>
       <c r="F44" s="4" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="G44" s="4" t="b">
         <v>0</v>
@@ -5174,7 +5173,7 @@
     </row>
     <row r="45" spans="1:9" ht="252" x14ac:dyDescent="0.2">
       <c r="A45" s="5" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B45" s="4" t="s">
         <v>137</v>
@@ -5189,7 +5188,7 @@
         <v>11</v>
       </c>
       <c r="F45" s="4" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="G45" s="4" t="b">
         <v>0</v>
@@ -5203,7 +5202,7 @@
     </row>
     <row r="46" spans="1:9" ht="198" x14ac:dyDescent="0.2">
       <c r="A46" s="5" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B46" s="4" t="s">
         <v>137</v>
@@ -5218,7 +5217,7 @@
         <v>18</v>
       </c>
       <c r="F46" s="4" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="G46" s="4" t="b">
         <v>1</v>
@@ -5252,7 +5251,9 @@
       <c r="G47" s="6" t="b">
         <v>1</v>
       </c>
-      <c r="H47" s="5"/>
+      <c r="H47" s="5" t="b">
+        <v>0</v>
+      </c>
       <c r="I47" s="5" t="s">
         <v>42</v>
       </c>
@@ -5279,7 +5280,9 @@
       <c r="G48" s="6" t="b">
         <v>1</v>
       </c>
-      <c r="H48" s="5"/>
+      <c r="H48" s="6" t="b">
+        <v>1</v>
+      </c>
       <c r="I48" s="5" t="s">
         <v>45</v>
       </c>
@@ -5306,7 +5309,9 @@
       <c r="G49" s="6" t="b">
         <v>1</v>
       </c>
-      <c r="H49" s="5"/>
+      <c r="H49" s="6" t="b">
+        <v>1</v>
+      </c>
       <c r="I49" s="5" t="s">
         <v>48</v>
       </c>
@@ -5333,7 +5338,9 @@
       <c r="G50" s="6" t="b">
         <v>1</v>
       </c>
-      <c r="H50" s="5"/>
+      <c r="H50" s="5" t="b">
+        <v>0</v>
+      </c>
       <c r="I50" s="5" t="s">
         <v>42</v>
       </c>
@@ -5360,7 +5367,9 @@
       <c r="G51" s="6" t="b">
         <v>1</v>
       </c>
-      <c r="H51" s="5"/>
+      <c r="H51" s="6" t="b">
+        <v>1</v>
+      </c>
       <c r="I51" s="5" t="s">
         <v>45</v>
       </c>
@@ -5382,19 +5391,21 @@
         <v>46</v>
       </c>
       <c r="F52" s="4" t="s">
-        <v>189</v>
+        <v>300</v>
       </c>
       <c r="G52" s="6" t="b">
         <v>1</v>
       </c>
-      <c r="H52" s="5"/>
+      <c r="H52" s="5" t="b">
+        <v>1</v>
+      </c>
       <c r="I52" s="5" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="53" spans="1:9" ht="324" x14ac:dyDescent="0.2">
       <c r="A53" s="5" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B53" s="4" t="s">
         <v>39</v>
@@ -5409,19 +5420,21 @@
         <v>17</v>
       </c>
       <c r="F53" s="4" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="G53" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="H53" s="5"/>
+      <c r="H53" s="5" t="b">
+        <v>1</v>
+      </c>
       <c r="I53" s="5" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="54" spans="1:9" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A54" s="5" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B54" s="4" t="s">
         <v>39</v>
@@ -5436,19 +5449,21 @@
         <v>43</v>
       </c>
       <c r="F54" s="4" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="G54" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="H54" s="5"/>
+      <c r="H54" s="4" t="b">
+        <v>1</v>
+      </c>
       <c r="I54" s="5" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="55" spans="1:9" ht="252" x14ac:dyDescent="0.2">
       <c r="A55" s="5" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B55" s="4" t="s">
         <v>39</v>
@@ -5463,12 +5478,14 @@
         <v>46</v>
       </c>
       <c r="F55" s="4" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="G55" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="H55" s="5"/>
+      <c r="H55" s="4" t="b">
+        <v>1</v>
+      </c>
       <c r="I55" s="5" t="s">
         <v>48</v>
       </c>
@@ -5492,8 +5509,12 @@
       <c r="F56" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="G56" s="4"/>
-      <c r="H56" s="5"/>
+      <c r="G56" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="H56" s="4" t="b">
+        <v>1</v>
+      </c>
       <c r="I56" s="5" t="s">
         <v>100</v>
       </c>
@@ -5517,8 +5538,12 @@
       <c r="F57" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="G57" s="4"/>
-      <c r="H57" s="5"/>
+      <c r="G57" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="H57" s="4" t="b">
+        <v>1</v>
+      </c>
       <c r="I57" s="5" t="s">
         <v>102</v>
       </c>
@@ -5542,8 +5567,12 @@
       <c r="F58" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="G58" s="4"/>
-      <c r="H58" s="5"/>
+      <c r="G58" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="H58" s="4" t="b">
+        <v>1</v>
+      </c>
       <c r="I58" s="5" t="s">
         <v>104</v>
       </c>
@@ -5565,10 +5594,14 @@
         <v>31</v>
       </c>
       <c r="F59" s="4" t="s">
-        <v>208</v>
-      </c>
-      <c r="G59" s="4"/>
-      <c r="H59" s="5"/>
+        <v>207</v>
+      </c>
+      <c r="G59" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="H59" s="4" t="b">
+        <v>1</v>
+      </c>
       <c r="I59" s="5" t="s">
         <v>100</v>
       </c>
@@ -5590,10 +5623,14 @@
         <v>34</v>
       </c>
       <c r="F60" s="4" t="s">
-        <v>209</v>
-      </c>
-      <c r="G60" s="4"/>
-      <c r="H60" s="5"/>
+        <v>208</v>
+      </c>
+      <c r="G60" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="H60" s="4" t="b">
+        <v>1</v>
+      </c>
       <c r="I60" s="5" t="s">
         <v>102</v>
       </c>
@@ -5615,17 +5652,21 @@
         <v>18</v>
       </c>
       <c r="F61" s="4" t="s">
-        <v>210</v>
-      </c>
-      <c r="G61" s="4"/>
-      <c r="H61" s="5"/>
+        <v>209</v>
+      </c>
+      <c r="G61" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="H61" s="4" t="b">
+        <v>1</v>
+      </c>
       <c r="I61" s="5" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="62" spans="1:9" ht="216" x14ac:dyDescent="0.2">
       <c r="A62" s="5" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B62" s="4" t="s">
         <v>97</v>
@@ -5640,17 +5681,21 @@
         <v>31</v>
       </c>
       <c r="F62" s="4" t="s">
-        <v>269</v>
-      </c>
-      <c r="G62" s="4"/>
-      <c r="H62" s="5"/>
+        <v>268</v>
+      </c>
+      <c r="G62" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="H62" s="4" t="b">
+        <v>1</v>
+      </c>
       <c r="I62" s="5" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="63" spans="1:9" ht="216" x14ac:dyDescent="0.2">
       <c r="A63" s="5" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B63" s="4" t="s">
         <v>97</v>
@@ -5665,17 +5710,21 @@
         <v>34</v>
       </c>
       <c r="F63" s="4" t="s">
-        <v>270</v>
-      </c>
-      <c r="G63" s="4"/>
-      <c r="H63" s="5"/>
+        <v>269</v>
+      </c>
+      <c r="G63" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="H63" s="4" t="b">
+        <v>1</v>
+      </c>
       <c r="I63" s="5" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="64" spans="1:9" ht="162" x14ac:dyDescent="0.2">
       <c r="A64" s="5" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B64" s="4" t="s">
         <v>97</v>
@@ -5690,10 +5739,14 @@
         <v>18</v>
       </c>
       <c r="F64" s="4" t="s">
-        <v>271</v>
-      </c>
-      <c r="G64" s="4"/>
-      <c r="H64" s="5"/>
+        <v>270</v>
+      </c>
+      <c r="G64" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="H64" s="4" t="b">
+        <v>1</v>
+      </c>
       <c r="I64" s="5" t="s">
         <v>104</v>
       </c>
@@ -5717,7 +5770,9 @@
       <c r="F65" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="G65" s="4"/>
+      <c r="G65" s="4" t="b">
+        <v>1</v>
+      </c>
       <c r="H65" s="5"/>
       <c r="I65" s="5" t="s">
         <v>24</v>
@@ -5742,7 +5797,9 @@
       <c r="F66" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="G66" s="4"/>
+      <c r="G66" s="4" t="b">
+        <v>1</v>
+      </c>
       <c r="H66" s="5"/>
       <c r="I66" s="5" t="s">
         <v>26</v>
@@ -5767,7 +5824,9 @@
       <c r="F67" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="G67" s="4"/>
+      <c r="G67" s="4" t="b">
+        <v>1</v>
+      </c>
       <c r="H67" s="5"/>
       <c r="I67" s="5" t="s">
         <v>28</v>
@@ -5792,7 +5851,9 @@
       <c r="F68" s="4" t="s">
         <v>181</v>
       </c>
-      <c r="G68" s="4"/>
+      <c r="G68" s="4" t="b">
+        <v>1</v>
+      </c>
       <c r="H68" s="5"/>
       <c r="I68" s="5" t="s">
         <v>24</v>
@@ -5817,7 +5878,9 @@
       <c r="F69" s="4" t="s">
         <v>182</v>
       </c>
-      <c r="G69" s="4"/>
+      <c r="G69" s="4" t="b">
+        <v>1</v>
+      </c>
       <c r="H69" s="5"/>
       <c r="I69" s="5" t="s">
         <v>26</v>
@@ -5842,7 +5905,9 @@
       <c r="F70" s="4" t="s">
         <v>183</v>
       </c>
-      <c r="G70" s="4"/>
+      <c r="G70" s="4" t="b">
+        <v>1</v>
+      </c>
       <c r="H70" s="5"/>
       <c r="I70" s="5" t="s">
         <v>28</v>
@@ -5850,7 +5915,7 @@
     </row>
     <row r="71" spans="1:9" ht="234" x14ac:dyDescent="0.2">
       <c r="A71" s="5" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B71" s="4" t="s">
         <v>21</v>
@@ -5865,9 +5930,11 @@
         <v>11</v>
       </c>
       <c r="F71" s="4" t="s">
-        <v>242</v>
-      </c>
-      <c r="G71" s="4"/>
+        <v>241</v>
+      </c>
+      <c r="G71" s="4" t="b">
+        <v>1</v>
+      </c>
       <c r="H71" s="5"/>
       <c r="I71" s="5" t="s">
         <v>24</v>
@@ -5875,7 +5942,7 @@
     </row>
     <row r="72" spans="1:9" ht="252" x14ac:dyDescent="0.2">
       <c r="A72" s="5" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B72" s="4" t="s">
         <v>21</v>
@@ -5890,9 +5957,11 @@
         <v>11</v>
       </c>
       <c r="F72" s="4" t="s">
-        <v>243</v>
-      </c>
-      <c r="G72" s="4"/>
+        <v>242</v>
+      </c>
+      <c r="G72" s="4" t="b">
+        <v>1</v>
+      </c>
       <c r="H72" s="5"/>
       <c r="I72" s="5" t="s">
         <v>26</v>
@@ -5900,7 +5969,7 @@
     </row>
     <row r="73" spans="1:9" ht="180" x14ac:dyDescent="0.2">
       <c r="A73" s="5" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B73" s="4" t="s">
         <v>21</v>
@@ -5915,9 +5984,11 @@
         <v>18</v>
       </c>
       <c r="F73" s="4" t="s">
-        <v>244</v>
-      </c>
-      <c r="G73" s="4"/>
+        <v>243</v>
+      </c>
+      <c r="G73" s="4" t="b">
+        <v>1</v>
+      </c>
       <c r="H73" s="5"/>
       <c r="I73" s="5" t="s">
         <v>28</v>
@@ -6015,7 +6086,7 @@
         <v>31</v>
       </c>
       <c r="F77" s="4" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="G77" s="4"/>
       <c r="H77" s="5"/>
@@ -6040,7 +6111,7 @@
         <v>34</v>
       </c>
       <c r="F78" s="4" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="G78" s="4"/>
       <c r="H78" s="5"/>
@@ -6065,7 +6136,7 @@
         <v>18</v>
       </c>
       <c r="F79" s="4" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="G79" s="4"/>
       <c r="H79" s="5"/>
@@ -6075,7 +6146,7 @@
     </row>
     <row r="80" spans="1:9" ht="234" x14ac:dyDescent="0.2">
       <c r="A80" s="5" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B80" s="4" t="s">
         <v>81</v>
@@ -6090,7 +6161,7 @@
         <v>31</v>
       </c>
       <c r="F80" s="4" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="G80" s="4"/>
       <c r="H80" s="5"/>
@@ -6100,7 +6171,7 @@
     </row>
     <row r="81" spans="1:9" ht="234" x14ac:dyDescent="0.2">
       <c r="A81" s="5" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B81" s="4" t="s">
         <v>81</v>
@@ -6115,7 +6186,7 @@
         <v>34</v>
       </c>
       <c r="F81" s="4" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="G81" s="4"/>
       <c r="H81" s="5"/>
@@ -6125,7 +6196,7 @@
     </row>
     <row r="82" spans="1:9" ht="162" x14ac:dyDescent="0.2">
       <c r="A82" s="5" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B82" s="4" t="s">
         <v>81</v>
@@ -6140,7 +6211,7 @@
         <v>18</v>
       </c>
       <c r="F82" s="4" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="G82" s="4"/>
       <c r="H82" s="5"/>
@@ -6240,7 +6311,7 @@
         <v>31</v>
       </c>
       <c r="F86" s="4" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="G86" s="4"/>
       <c r="H86" s="5"/>
@@ -6265,7 +6336,7 @@
         <v>34</v>
       </c>
       <c r="F87" s="4" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="G87" s="4"/>
       <c r="H87" s="5"/>
@@ -6290,7 +6361,7 @@
         <v>18</v>
       </c>
       <c r="F88" s="4" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="G88" s="4"/>
       <c r="H88" s="5"/>
@@ -6300,7 +6371,7 @@
     </row>
     <row r="89" spans="1:9" ht="216" x14ac:dyDescent="0.2">
       <c r="A89" s="5" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B89" s="4" t="s">
         <v>89</v>
@@ -6315,7 +6386,7 @@
         <v>31</v>
       </c>
       <c r="F89" s="4" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="G89" s="4"/>
       <c r="H89" s="5"/>
@@ -6325,7 +6396,7 @@
     </row>
     <row r="90" spans="1:9" ht="216" x14ac:dyDescent="0.2">
       <c r="A90" s="5" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B90" s="4" t="s">
         <v>89</v>
@@ -6340,7 +6411,7 @@
         <v>34</v>
       </c>
       <c r="F90" s="4" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="G90" s="4"/>
       <c r="H90" s="5"/>
@@ -6350,7 +6421,7 @@
     </row>
     <row r="91" spans="1:9" ht="162" x14ac:dyDescent="0.2">
       <c r="A91" s="5" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B91" s="4" t="s">
         <v>89</v>
@@ -6365,7 +6436,7 @@
         <v>18</v>
       </c>
       <c r="F91" s="4" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="G91" s="4"/>
       <c r="H91" s="5"/>
@@ -6392,8 +6463,12 @@
       <c r="F92" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="G92" s="4"/>
-      <c r="H92" s="5"/>
+      <c r="G92" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="H92" s="4" t="b">
+        <v>1</v>
+      </c>
       <c r="I92" s="5" t="s">
         <v>116</v>
       </c>
@@ -6417,8 +6492,12 @@
       <c r="F93" s="4" t="s">
         <v>117</v>
       </c>
-      <c r="G93" s="4"/>
-      <c r="H93" s="5"/>
+      <c r="G93" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="H93" s="4" t="b">
+        <v>1</v>
+      </c>
       <c r="I93" s="5" t="s">
         <v>118</v>
       </c>
@@ -6442,7 +6521,9 @@
       <c r="F94" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="G94" s="4"/>
+      <c r="G94" s="4" t="b">
+        <v>1</v>
+      </c>
       <c r="H94" s="5"/>
       <c r="I94" s="5" t="s">
         <v>120</v>
@@ -6465,9 +6546,11 @@
         <v>17</v>
       </c>
       <c r="F95" s="4" t="s">
-        <v>214</v>
-      </c>
-      <c r="G95" s="4"/>
+        <v>213</v>
+      </c>
+      <c r="G95" s="4" t="b">
+        <v>1</v>
+      </c>
       <c r="H95" s="5"/>
       <c r="I95" s="5" t="s">
         <v>116</v>
@@ -6490,9 +6573,11 @@
         <v>43</v>
       </c>
       <c r="F96" s="4" t="s">
-        <v>215</v>
-      </c>
-      <c r="G96" s="4"/>
+        <v>214</v>
+      </c>
+      <c r="G96" s="4" t="b">
+        <v>1</v>
+      </c>
       <c r="H96" s="5"/>
       <c r="I96" s="5" t="s">
         <v>118</v>
@@ -6515,9 +6600,11 @@
         <v>46</v>
       </c>
       <c r="F97" s="4" t="s">
-        <v>216</v>
-      </c>
-      <c r="G97" s="4"/>
+        <v>215</v>
+      </c>
+      <c r="G97" s="4" t="b">
+        <v>1</v>
+      </c>
       <c r="H97" s="5"/>
       <c r="I97" s="5" t="s">
         <v>120</v>
@@ -6525,7 +6612,7 @@
     </row>
     <row r="98" spans="1:9" ht="342" x14ac:dyDescent="0.2">
       <c r="A98" s="5" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B98" s="4" t="s">
         <v>113</v>
@@ -6540,9 +6627,11 @@
         <v>17</v>
       </c>
       <c r="F98" s="4" t="s">
-        <v>275</v>
-      </c>
-      <c r="G98" s="4"/>
+        <v>274</v>
+      </c>
+      <c r="G98" s="4" t="b">
+        <v>1</v>
+      </c>
       <c r="H98" s="5"/>
       <c r="I98" s="5" t="s">
         <v>116</v>
@@ -6550,7 +6639,7 @@
     </row>
     <row r="99" spans="1:9" ht="234" x14ac:dyDescent="0.2">
       <c r="A99" s="5" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B99" s="4" t="s">
         <v>113</v>
@@ -6565,9 +6654,11 @@
         <v>43</v>
       </c>
       <c r="F99" s="4" t="s">
-        <v>276</v>
-      </c>
-      <c r="G99" s="4"/>
+        <v>275</v>
+      </c>
+      <c r="G99" s="4" t="b">
+        <v>1</v>
+      </c>
       <c r="H99" s="5"/>
       <c r="I99" s="5" t="s">
         <v>118</v>
@@ -6575,7 +6666,7 @@
     </row>
     <row r="100" spans="1:9" ht="198" x14ac:dyDescent="0.2">
       <c r="A100" s="5" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B100" s="4" t="s">
         <v>113</v>
@@ -6590,9 +6681,11 @@
         <v>46</v>
       </c>
       <c r="F100" s="4" t="s">
-        <v>277</v>
-      </c>
-      <c r="G100" s="4"/>
+        <v>276</v>
+      </c>
+      <c r="G100" s="4" t="b">
+        <v>1</v>
+      </c>
       <c r="H100" s="5"/>
       <c r="I100" s="5" t="s">
         <v>120</v>
@@ -6617,8 +6710,12 @@
       <c r="F101" s="4" t="s">
         <v>155</v>
       </c>
-      <c r="G101" s="4"/>
-      <c r="H101" s="5"/>
+      <c r="G101" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="H101" s="4" t="b">
+        <v>1</v>
+      </c>
       <c r="I101" s="5" t="s">
         <v>156</v>
       </c>
@@ -6642,8 +6739,12 @@
       <c r="F102" s="4" t="s">
         <v>157</v>
       </c>
-      <c r="G102" s="4"/>
-      <c r="H102" s="5"/>
+      <c r="G102" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="H102" s="4" t="b">
+        <v>1</v>
+      </c>
       <c r="I102" s="5" t="s">
         <v>158</v>
       </c>
@@ -6667,8 +6768,12 @@
       <c r="F103" s="4" t="s">
         <v>159</v>
       </c>
-      <c r="G103" s="4"/>
-      <c r="H103" s="5"/>
+      <c r="G103" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="H103" s="4" t="b">
+        <v>1</v>
+      </c>
       <c r="I103" s="5" t="s">
         <v>160</v>
       </c>
@@ -6690,10 +6795,14 @@
         <v>11</v>
       </c>
       <c r="F104" s="4" t="s">
-        <v>229</v>
-      </c>
-      <c r="G104" s="4"/>
-      <c r="H104" s="5"/>
+        <v>228</v>
+      </c>
+      <c r="G104" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="H104" s="4" t="b">
+        <v>1</v>
+      </c>
       <c r="I104" s="5" t="s">
         <v>156</v>
       </c>
@@ -6715,10 +6824,14 @@
         <v>11</v>
       </c>
       <c r="F105" s="4" t="s">
-        <v>230</v>
-      </c>
-      <c r="G105" s="4"/>
-      <c r="H105" s="5"/>
+        <v>229</v>
+      </c>
+      <c r="G105" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="H105" s="4" t="b">
+        <v>1</v>
+      </c>
       <c r="I105" s="5" t="s">
         <v>158</v>
       </c>
@@ -6740,17 +6853,21 @@
         <v>18</v>
       </c>
       <c r="F106" s="4" t="s">
-        <v>231</v>
-      </c>
-      <c r="G106" s="4"/>
-      <c r="H106" s="5"/>
+        <v>230</v>
+      </c>
+      <c r="G106" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="H106" s="4" t="b">
+        <v>1</v>
+      </c>
       <c r="I106" s="5" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="107" spans="1:9" ht="306" x14ac:dyDescent="0.2">
       <c r="A107" s="5" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B107" s="4" t="s">
         <v>153</v>
@@ -6765,17 +6882,21 @@
         <v>11</v>
       </c>
       <c r="F107" s="4" t="s">
-        <v>290</v>
-      </c>
-      <c r="G107" s="4"/>
-      <c r="H107" s="5"/>
+        <v>289</v>
+      </c>
+      <c r="G107" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="H107" s="4" t="b">
+        <v>1</v>
+      </c>
       <c r="I107" s="5" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="108" spans="1:9" ht="270" x14ac:dyDescent="0.2">
       <c r="A108" s="5" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B108" s="4" t="s">
         <v>153</v>
@@ -6790,17 +6911,21 @@
         <v>11</v>
       </c>
       <c r="F108" s="4" t="s">
-        <v>291</v>
-      </c>
-      <c r="G108" s="4"/>
-      <c r="H108" s="5"/>
+        <v>290</v>
+      </c>
+      <c r="G108" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="H108" s="4" t="b">
+        <v>1</v>
+      </c>
       <c r="I108" s="5" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="109" spans="1:9" ht="180" x14ac:dyDescent="0.2">
       <c r="A109" s="5" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B109" s="4" t="s">
         <v>153</v>
@@ -6815,10 +6940,14 @@
         <v>18</v>
       </c>
       <c r="F109" s="4" t="s">
-        <v>292</v>
-      </c>
-      <c r="G109" s="4"/>
-      <c r="H109" s="5"/>
+        <v>291</v>
+      </c>
+      <c r="G109" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="H109" s="4" t="b">
+        <v>1</v>
+      </c>
       <c r="I109" s="5" t="s">
         <v>160</v>
       </c>
@@ -6915,7 +7044,7 @@
         <v>31</v>
       </c>
       <c r="F113" s="4" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="G113" s="4"/>
       <c r="H113" s="5"/>
@@ -6940,7 +7069,7 @@
         <v>34</v>
       </c>
       <c r="F114" s="4" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="G114" s="4"/>
       <c r="H114" s="5"/>
@@ -6965,7 +7094,7 @@
         <v>18</v>
       </c>
       <c r="F115" s="4" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="G115" s="4"/>
       <c r="H115" s="5"/>
@@ -6975,7 +7104,7 @@
     </row>
     <row r="116" spans="1:9" ht="306" x14ac:dyDescent="0.2">
       <c r="A116" s="5" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B116" s="4" t="s">
         <v>105</v>
@@ -6990,7 +7119,7 @@
         <v>31</v>
       </c>
       <c r="F116" s="4" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="G116" s="4"/>
       <c r="H116" s="5"/>
@@ -7000,7 +7129,7 @@
     </row>
     <row r="117" spans="1:9" ht="234" x14ac:dyDescent="0.2">
       <c r="A117" s="5" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B117" s="4" t="s">
         <v>105</v>
@@ -7015,7 +7144,7 @@
         <v>34</v>
       </c>
       <c r="F117" s="4" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="G117" s="4"/>
       <c r="H117" s="5"/>
@@ -7025,7 +7154,7 @@
     </row>
     <row r="118" spans="1:9" ht="216" x14ac:dyDescent="0.2">
       <c r="A118" s="5" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B118" s="4" t="s">
         <v>105</v>
@@ -7040,7 +7169,7 @@
         <v>18</v>
       </c>
       <c r="F118" s="4" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="G118" s="4"/>
       <c r="H118" s="5"/>
@@ -7140,7 +7269,7 @@
         <v>31</v>
       </c>
       <c r="F122" s="4" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="G122" s="4"/>
       <c r="H122" s="5"/>
@@ -7165,7 +7294,7 @@
         <v>34</v>
       </c>
       <c r="F123" s="4" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="G123" s="4"/>
       <c r="H123" s="5"/>
@@ -7190,7 +7319,7 @@
         <v>18</v>
       </c>
       <c r="F124" s="4" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="G124" s="4"/>
       <c r="H124" s="5"/>
@@ -7200,7 +7329,7 @@
     </row>
     <row r="125" spans="1:9" ht="270" x14ac:dyDescent="0.2">
       <c r="A125" s="5" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B125" s="4" t="s">
         <v>169</v>
@@ -7215,7 +7344,7 @@
         <v>31</v>
       </c>
       <c r="F125" s="4" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="G125" s="4"/>
       <c r="H125" s="5"/>
@@ -7225,7 +7354,7 @@
     </row>
     <row r="126" spans="1:9" ht="270" x14ac:dyDescent="0.2">
       <c r="A126" s="5" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B126" s="4" t="s">
         <v>169</v>
@@ -7240,7 +7369,7 @@
         <v>34</v>
       </c>
       <c r="F126" s="4" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="G126" s="4"/>
       <c r="H126" s="5"/>
@@ -7250,7 +7379,7 @@
     </row>
     <row r="127" spans="1:9" ht="180" x14ac:dyDescent="0.2">
       <c r="A127" s="5" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B127" s="4" t="s">
         <v>169</v>
@@ -7265,7 +7394,7 @@
         <v>18</v>
       </c>
       <c r="F127" s="4" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="G127" s="4"/>
       <c r="H127" s="5"/>
@@ -7365,7 +7494,7 @@
         <v>17</v>
       </c>
       <c r="F131" s="4" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="G131" s="4"/>
       <c r="H131" s="5"/>
@@ -7390,7 +7519,7 @@
         <v>43</v>
       </c>
       <c r="F132" s="4" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="G132" s="4"/>
       <c r="H132" s="5"/>
@@ -7415,7 +7544,7 @@
         <v>46</v>
       </c>
       <c r="F133" s="4" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="G133" s="4"/>
       <c r="H133" s="5"/>
@@ -7425,7 +7554,7 @@
     </row>
     <row r="134" spans="1:9" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A134" s="5" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B134" s="4" t="s">
         <v>57</v>
@@ -7440,7 +7569,7 @@
         <v>17</v>
       </c>
       <c r="F134" s="4" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="G134" s="4"/>
       <c r="H134" s="5"/>
@@ -7450,7 +7579,7 @@
     </row>
     <row r="135" spans="1:9" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A135" s="5" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B135" s="4" t="s">
         <v>57</v>
@@ -7465,7 +7594,7 @@
         <v>43</v>
       </c>
       <c r="F135" s="4" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="G135" s="4"/>
       <c r="H135" s="5"/>
@@ -7475,7 +7604,7 @@
     </row>
     <row r="136" spans="1:9" ht="198" x14ac:dyDescent="0.2">
       <c r="A136" s="5" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B136" s="4" t="s">
         <v>57</v>
@@ -7490,7 +7619,7 @@
         <v>46</v>
       </c>
       <c r="F136" s="4" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="G136" s="4"/>
       <c r="H136" s="5"/>
@@ -7590,7 +7719,7 @@
         <v>17</v>
       </c>
       <c r="F140" s="4" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="G140" s="4"/>
       <c r="H140" s="5"/>
@@ -7615,7 +7744,7 @@
         <v>43</v>
       </c>
       <c r="F141" s="4" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="G141" s="4"/>
       <c r="H141" s="5"/>
@@ -7640,7 +7769,7 @@
         <v>46</v>
       </c>
       <c r="F142" s="4" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="G142" s="4"/>
       <c r="H142" s="5"/>
@@ -7650,7 +7779,7 @@
     </row>
     <row r="143" spans="1:9" ht="252" x14ac:dyDescent="0.2">
       <c r="A143" s="5" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B143" s="4" t="s">
         <v>121</v>
@@ -7665,7 +7794,7 @@
         <v>17</v>
       </c>
       <c r="F143" s="4" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="G143" s="4"/>
       <c r="H143" s="5"/>
@@ -7675,7 +7804,7 @@
     </row>
     <row r="144" spans="1:9" ht="394" x14ac:dyDescent="0.2">
       <c r="A144" s="5" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B144" s="4" t="s">
         <v>121</v>
@@ -7690,7 +7819,7 @@
         <v>43</v>
       </c>
       <c r="F144" s="4" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="G144" s="4"/>
       <c r="H144" s="5"/>
@@ -7700,7 +7829,7 @@
     </row>
     <row r="145" spans="1:9" ht="162" x14ac:dyDescent="0.2">
       <c r="A145" s="5" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B145" s="4" t="s">
         <v>121</v>
@@ -7715,7 +7844,7 @@
         <v>46</v>
       </c>
       <c r="F145" s="4" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="G145" s="4"/>
       <c r="H145" s="5"/>
@@ -7815,7 +7944,7 @@
         <v>31</v>
       </c>
       <c r="F149" s="4" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="G149" s="4"/>
       <c r="H149" s="5"/>
@@ -7840,7 +7969,7 @@
         <v>34</v>
       </c>
       <c r="F150" s="4" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="G150" s="4"/>
       <c r="H150" s="5"/>
@@ -7865,7 +7994,7 @@
         <v>18</v>
       </c>
       <c r="F151" s="4" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="G151" s="4"/>
       <c r="H151" s="5"/>
@@ -7875,7 +8004,7 @@
     </row>
     <row r="152" spans="1:9" ht="234" x14ac:dyDescent="0.2">
       <c r="A152" s="5" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B152" s="4" t="s">
         <v>145</v>
@@ -7890,7 +8019,7 @@
         <v>31</v>
       </c>
       <c r="F152" s="4" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="G152" s="4"/>
       <c r="H152" s="5"/>
@@ -7900,7 +8029,7 @@
     </row>
     <row r="153" spans="1:9" ht="198" x14ac:dyDescent="0.2">
       <c r="A153" s="5" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B153" s="4" t="s">
         <v>145</v>
@@ -7915,7 +8044,7 @@
         <v>34</v>
       </c>
       <c r="F153" s="4" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="G153" s="4"/>
       <c r="H153" s="5"/>
@@ -7925,7 +8054,7 @@
     </row>
     <row r="154" spans="1:9" ht="162" x14ac:dyDescent="0.2">
       <c r="A154" s="5" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B154" s="4" t="s">
         <v>145</v>
@@ -7940,7 +8069,7 @@
         <v>18</v>
       </c>
       <c r="F154" s="4" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="G154" s="4"/>
       <c r="H154" s="5"/>
@@ -8040,7 +8169,7 @@
         <v>17</v>
       </c>
       <c r="F158" s="4" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="G158" s="4"/>
       <c r="H158" s="5"/>
@@ -8065,7 +8194,7 @@
         <v>43</v>
       </c>
       <c r="F159" s="4" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="G159" s="4"/>
       <c r="H159" s="5"/>
@@ -8090,7 +8219,7 @@
         <v>46</v>
       </c>
       <c r="F160" s="4" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="G160" s="4"/>
       <c r="H160" s="5"/>
@@ -8100,7 +8229,7 @@
     </row>
     <row r="161" spans="1:9" ht="342" x14ac:dyDescent="0.2">
       <c r="A161" s="5" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B161" s="4" t="s">
         <v>49</v>
@@ -8115,7 +8244,7 @@
         <v>17</v>
       </c>
       <c r="F161" s="4" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="G161" s="4"/>
       <c r="H161" s="5"/>
@@ -8125,7 +8254,7 @@
     </row>
     <row r="162" spans="1:9" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A162" s="5" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B162" s="4" t="s">
         <v>49</v>
@@ -8140,7 +8269,7 @@
         <v>43</v>
       </c>
       <c r="F162" s="4" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="G162" s="4"/>
       <c r="H162" s="5"/>
@@ -8150,7 +8279,7 @@
     </row>
     <row r="163" spans="1:9" ht="162" x14ac:dyDescent="0.2">
       <c r="A163" s="5" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B163" s="4" t="s">
         <v>49</v>
@@ -8165,7 +8294,7 @@
         <v>46</v>
       </c>
       <c r="F163" s="4" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="G163" s="4"/>
       <c r="H163" s="5"/>
@@ -8325,7 +8454,7 @@
     </row>
     <row r="170" spans="1:9" ht="270" x14ac:dyDescent="0.2">
       <c r="A170" s="5" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B170" s="4" t="s">
         <v>29</v>
@@ -8340,7 +8469,7 @@
         <v>31</v>
       </c>
       <c r="F170" s="4" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="G170" s="4"/>
       <c r="H170" s="5"/>
@@ -8350,7 +8479,7 @@
     </row>
     <row r="171" spans="1:9" ht="234" x14ac:dyDescent="0.2">
       <c r="A171" s="5" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B171" s="4" t="s">
         <v>29</v>
@@ -8365,7 +8494,7 @@
         <v>34</v>
       </c>
       <c r="F171" s="4" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="G171" s="4"/>
       <c r="H171" s="5"/>
@@ -8375,7 +8504,7 @@
     </row>
     <row r="172" spans="1:9" ht="162" x14ac:dyDescent="0.2">
       <c r="A172" s="5" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B172" s="4" t="s">
         <v>29</v>
@@ -8390,7 +8519,7 @@
         <v>18</v>
       </c>
       <c r="F172" s="4" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="G172" s="4"/>
       <c r="H172" s="5"/>
@@ -8490,7 +8619,7 @@
         <v>11</v>
       </c>
       <c r="F176" s="4" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="G176" s="4"/>
       <c r="H176" s="5"/>
@@ -8515,7 +8644,7 @@
         <v>11</v>
       </c>
       <c r="F177" s="4" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="G177" s="4"/>
       <c r="H177" s="5"/>
@@ -8540,7 +8669,7 @@
         <v>18</v>
       </c>
       <c r="F178" s="4" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="G178" s="4"/>
       <c r="H178" s="5"/>
@@ -8550,7 +8679,7 @@
     </row>
     <row r="179" spans="1:9" ht="288" x14ac:dyDescent="0.2">
       <c r="A179" s="5" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B179" s="4" t="s">
         <v>65</v>
@@ -8565,7 +8694,7 @@
         <v>11</v>
       </c>
       <c r="F179" s="4" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="G179" s="4"/>
       <c r="H179" s="5"/>
@@ -8575,7 +8704,7 @@
     </row>
     <row r="180" spans="1:9" ht="216" x14ac:dyDescent="0.2">
       <c r="A180" s="5" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B180" s="4" t="s">
         <v>65</v>
@@ -8590,7 +8719,7 @@
         <v>11</v>
       </c>
       <c r="F180" s="4" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="G180" s="4"/>
       <c r="H180" s="5"/>
@@ -8600,7 +8729,7 @@
     </row>
     <row r="181" spans="1:9" ht="324" x14ac:dyDescent="0.2">
       <c r="A181" s="5" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B181" s="4" t="s">
         <v>65</v>
@@ -8615,7 +8744,7 @@
         <v>18</v>
       </c>
       <c r="F181" s="4" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="G181" s="4"/>
       <c r="H181" s="5"/>
@@ -8630,5 +8759,6 @@
     </sortState>
   </autoFilter>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
--- a/src/results/unified_results_20_prompt_other_possibilities_expanded_3_types.xlsx
+++ b/src/results/unified_results_20_prompt_other_possibilities_expanded_3_types.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/roeeesquira/PycharmProjects/possibilities/src/results/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F52FAF2-A0FE-6E48-8C35-E5E3B9A9C744}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBF17262-52CB-6341-925D-CB873FCE0E07}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="21800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3878,8 +3878,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I181"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A93" workbookViewId="0">
-      <selection activeCell="H93" sqref="H93"/>
+    <sheetView tabSelected="1" topLeftCell="A119" workbookViewId="0">
+      <selection activeCell="G119" sqref="G119"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -5773,7 +5773,9 @@
       <c r="G65" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="H65" s="5"/>
+      <c r="H65" s="4" t="b">
+        <v>1</v>
+      </c>
       <c r="I65" s="5" t="s">
         <v>24</v>
       </c>
@@ -5800,7 +5802,9 @@
       <c r="G66" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="H66" s="5"/>
+      <c r="H66" s="4" t="b">
+        <v>1</v>
+      </c>
       <c r="I66" s="5" t="s">
         <v>26</v>
       </c>
@@ -5827,7 +5831,9 @@
       <c r="G67" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="H67" s="5"/>
+      <c r="H67" s="4" t="b">
+        <v>1</v>
+      </c>
       <c r="I67" s="5" t="s">
         <v>28</v>
       </c>
@@ -5854,7 +5860,9 @@
       <c r="G68" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="H68" s="5"/>
+      <c r="H68" s="4" t="b">
+        <v>1</v>
+      </c>
       <c r="I68" s="5" t="s">
         <v>24</v>
       </c>
@@ -5881,7 +5889,9 @@
       <c r="G69" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="H69" s="5"/>
+      <c r="H69" s="4" t="b">
+        <v>1</v>
+      </c>
       <c r="I69" s="5" t="s">
         <v>26</v>
       </c>
@@ -5908,7 +5918,9 @@
       <c r="G70" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="H70" s="5"/>
+      <c r="H70" s="4" t="b">
+        <v>1</v>
+      </c>
       <c r="I70" s="5" t="s">
         <v>28</v>
       </c>
@@ -5935,7 +5947,9 @@
       <c r="G71" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="H71" s="5"/>
+      <c r="H71" s="4" t="b">
+        <v>1</v>
+      </c>
       <c r="I71" s="5" t="s">
         <v>24</v>
       </c>
@@ -5962,7 +5976,9 @@
       <c r="G72" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="H72" s="5"/>
+      <c r="H72" s="4" t="b">
+        <v>0</v>
+      </c>
       <c r="I72" s="5" t="s">
         <v>26</v>
       </c>
@@ -5989,7 +6005,9 @@
       <c r="G73" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="H73" s="5"/>
+      <c r="H73" s="4" t="b">
+        <v>1</v>
+      </c>
       <c r="I73" s="5" t="s">
         <v>28</v>
       </c>
@@ -6013,8 +6031,12 @@
       <c r="F74" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="G74" s="4"/>
-      <c r="H74" s="5"/>
+      <c r="G74" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="H74" s="5" t="b">
+        <v>0</v>
+      </c>
       <c r="I74" s="5" t="s">
         <v>84</v>
       </c>
@@ -6038,8 +6060,12 @@
       <c r="F75" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="G75" s="4"/>
-      <c r="H75" s="5"/>
+      <c r="G75" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="H75" s="5" t="b">
+        <v>0</v>
+      </c>
       <c r="I75" s="5" t="s">
         <v>86</v>
       </c>
@@ -6063,8 +6089,12 @@
       <c r="F76" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="G76" s="4"/>
-      <c r="H76" s="5"/>
+      <c r="G76" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="H76" s="4" t="b">
+        <v>1</v>
+      </c>
       <c r="I76" s="5" t="s">
         <v>88</v>
       </c>
@@ -6088,8 +6118,12 @@
       <c r="F77" s="4" t="s">
         <v>201</v>
       </c>
-      <c r="G77" s="4"/>
-      <c r="H77" s="5"/>
+      <c r="G77" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="H77" s="5" t="b">
+        <v>0</v>
+      </c>
       <c r="I77" s="5" t="s">
         <v>84</v>
       </c>
@@ -6113,8 +6147,12 @@
       <c r="F78" s="4" t="s">
         <v>202</v>
       </c>
-      <c r="G78" s="4"/>
-      <c r="H78" s="5"/>
+      <c r="G78" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="H78" s="5" t="b">
+        <v>0</v>
+      </c>
       <c r="I78" s="5" t="s">
         <v>86</v>
       </c>
@@ -6138,8 +6176,12 @@
       <c r="F79" s="4" t="s">
         <v>203</v>
       </c>
-      <c r="G79" s="4"/>
-      <c r="H79" s="5"/>
+      <c r="G79" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="H79" s="4" t="b">
+        <v>1</v>
+      </c>
       <c r="I79" s="5" t="s">
         <v>88</v>
       </c>
@@ -6163,8 +6205,12 @@
       <c r="F80" s="4" t="s">
         <v>262</v>
       </c>
-      <c r="G80" s="4"/>
-      <c r="H80" s="5"/>
+      <c r="G80" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="H80" s="5" t="b">
+        <v>0</v>
+      </c>
       <c r="I80" s="5" t="s">
         <v>84</v>
       </c>
@@ -6188,8 +6234,12 @@
       <c r="F81" s="4" t="s">
         <v>263</v>
       </c>
-      <c r="G81" s="4"/>
-      <c r="H81" s="5"/>
+      <c r="G81" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="H81" s="5" t="b">
+        <v>0</v>
+      </c>
       <c r="I81" s="5" t="s">
         <v>86</v>
       </c>
@@ -6213,8 +6263,12 @@
       <c r="F82" s="4" t="s">
         <v>264</v>
       </c>
-      <c r="G82" s="4"/>
-      <c r="H82" s="5"/>
+      <c r="G82" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="H82" s="5" t="b">
+        <v>0</v>
+      </c>
       <c r="I82" s="5" t="s">
         <v>88</v>
       </c>
@@ -6238,8 +6292,12 @@
       <c r="F83" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="G83" s="4"/>
-      <c r="H83" s="5"/>
+      <c r="G83" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="H83" s="4" t="b">
+        <v>1</v>
+      </c>
       <c r="I83" s="5" t="s">
         <v>92</v>
       </c>
@@ -6263,8 +6321,12 @@
       <c r="F84" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="G84" s="4"/>
-      <c r="H84" s="5"/>
+      <c r="G84" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="H84" s="4" t="b">
+        <v>1</v>
+      </c>
       <c r="I84" s="5" t="s">
         <v>94</v>
       </c>
@@ -6288,8 +6350,12 @@
       <c r="F85" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="G85" s="4"/>
-      <c r="H85" s="5"/>
+      <c r="G85" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="H85" s="4" t="b">
+        <v>1</v>
+      </c>
       <c r="I85" s="5" t="s">
         <v>96</v>
       </c>
@@ -6313,8 +6379,12 @@
       <c r="F86" s="4" t="s">
         <v>204</v>
       </c>
-      <c r="G86" s="4"/>
-      <c r="H86" s="5"/>
+      <c r="G86" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="H86" s="4" t="b">
+        <v>1</v>
+      </c>
       <c r="I86" s="5" t="s">
         <v>92</v>
       </c>
@@ -6338,8 +6408,12 @@
       <c r="F87" s="4" t="s">
         <v>205</v>
       </c>
-      <c r="G87" s="4"/>
-      <c r="H87" s="5"/>
+      <c r="G87" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="H87" s="4" t="b">
+        <v>1</v>
+      </c>
       <c r="I87" s="5" t="s">
         <v>94</v>
       </c>
@@ -6363,8 +6437,12 @@
       <c r="F88" s="4" t="s">
         <v>206</v>
       </c>
-      <c r="G88" s="4"/>
-      <c r="H88" s="5"/>
+      <c r="G88" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="H88" s="4" t="b">
+        <v>1</v>
+      </c>
       <c r="I88" s="5" t="s">
         <v>96</v>
       </c>
@@ -6388,8 +6466,12 @@
       <c r="F89" s="4" t="s">
         <v>265</v>
       </c>
-      <c r="G89" s="4"/>
-      <c r="H89" s="5"/>
+      <c r="G89" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="H89" s="4" t="b">
+        <v>1</v>
+      </c>
       <c r="I89" s="5" t="s">
         <v>92</v>
       </c>
@@ -6413,8 +6495,12 @@
       <c r="F90" s="4" t="s">
         <v>266</v>
       </c>
-      <c r="G90" s="4"/>
-      <c r="H90" s="5"/>
+      <c r="G90" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="H90" s="4" t="b">
+        <v>1</v>
+      </c>
       <c r="I90" s="5" t="s">
         <v>94</v>
       </c>
@@ -6438,8 +6524,12 @@
       <c r="F91" s="4" t="s">
         <v>267</v>
       </c>
-      <c r="G91" s="4"/>
-      <c r="H91" s="5"/>
+      <c r="G91" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="H91" s="4" t="b">
+        <v>1</v>
+      </c>
       <c r="I91" s="5" t="s">
         <v>96</v>
       </c>
@@ -6524,7 +6614,9 @@
       <c r="G94" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="H94" s="5"/>
+      <c r="H94" s="4" t="b">
+        <v>1</v>
+      </c>
       <c r="I94" s="5" t="s">
         <v>120</v>
       </c>
@@ -6551,7 +6643,9 @@
       <c r="G95" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="H95" s="5"/>
+      <c r="H95" s="4" t="b">
+        <v>1</v>
+      </c>
       <c r="I95" s="5" t="s">
         <v>116</v>
       </c>
@@ -6578,7 +6672,9 @@
       <c r="G96" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="H96" s="5"/>
+      <c r="H96" s="4" t="b">
+        <v>1</v>
+      </c>
       <c r="I96" s="5" t="s">
         <v>118</v>
       </c>
@@ -6605,7 +6701,9 @@
       <c r="G97" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="H97" s="5"/>
+      <c r="H97" s="4" t="b">
+        <v>1</v>
+      </c>
       <c r="I97" s="5" t="s">
         <v>120</v>
       </c>
@@ -6632,7 +6730,9 @@
       <c r="G98" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="H98" s="5"/>
+      <c r="H98" s="4" t="b">
+        <v>1</v>
+      </c>
       <c r="I98" s="5" t="s">
         <v>116</v>
       </c>
@@ -6659,7 +6759,9 @@
       <c r="G99" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="H99" s="5"/>
+      <c r="H99" s="4" t="b">
+        <v>1</v>
+      </c>
       <c r="I99" s="5" t="s">
         <v>118</v>
       </c>
@@ -6686,7 +6788,9 @@
       <c r="G100" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="H100" s="5"/>
+      <c r="H100" s="4" t="b">
+        <v>1</v>
+      </c>
       <c r="I100" s="5" t="s">
         <v>120</v>
       </c>
@@ -6971,8 +7075,12 @@
       <c r="F110" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="G110" s="4"/>
-      <c r="H110" s="5"/>
+      <c r="G110" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="H110" s="5" t="b">
+        <v>0</v>
+      </c>
       <c r="I110" s="5" t="s">
         <v>108</v>
       </c>
@@ -6996,8 +7104,12 @@
       <c r="F111" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="G111" s="4"/>
-      <c r="H111" s="5"/>
+      <c r="G111" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="H111" s="5" t="b">
+        <v>0</v>
+      </c>
       <c r="I111" s="5" t="s">
         <v>110</v>
       </c>
@@ -7021,8 +7133,12 @@
       <c r="F112" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="G112" s="4"/>
-      <c r="H112" s="5"/>
+      <c r="G112" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="H112" s="4" t="b">
+        <v>1</v>
+      </c>
       <c r="I112" s="5" t="s">
         <v>112</v>
       </c>
@@ -7046,8 +7162,12 @@
       <c r="F113" s="4" t="s">
         <v>210</v>
       </c>
-      <c r="G113" s="4"/>
-      <c r="H113" s="5"/>
+      <c r="G113" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="H113" s="4" t="b">
+        <v>1</v>
+      </c>
       <c r="I113" s="5" t="s">
         <v>108</v>
       </c>
@@ -7071,8 +7191,12 @@
       <c r="F114" s="4" t="s">
         <v>211</v>
       </c>
-      <c r="G114" s="4"/>
-      <c r="H114" s="5"/>
+      <c r="G114" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="H114" s="4" t="b">
+        <v>1</v>
+      </c>
       <c r="I114" s="5" t="s">
         <v>110</v>
       </c>
@@ -7096,8 +7220,12 @@
       <c r="F115" s="4" t="s">
         <v>212</v>
       </c>
-      <c r="G115" s="4"/>
-      <c r="H115" s="5"/>
+      <c r="G115" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="H115" s="4" t="b">
+        <v>0</v>
+      </c>
       <c r="I115" s="5" t="s">
         <v>112</v>
       </c>
@@ -7121,8 +7249,12 @@
       <c r="F116" s="4" t="s">
         <v>271</v>
       </c>
-      <c r="G116" s="4"/>
-      <c r="H116" s="5"/>
+      <c r="G116" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="H116" s="4" t="b">
+        <v>1</v>
+      </c>
       <c r="I116" s="5" t="s">
         <v>108</v>
       </c>
@@ -7146,8 +7278,12 @@
       <c r="F117" s="4" t="s">
         <v>272</v>
       </c>
-      <c r="G117" s="4"/>
-      <c r="H117" s="5"/>
+      <c r="G117" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="H117" s="4" t="b">
+        <v>1</v>
+      </c>
       <c r="I117" s="5" t="s">
         <v>110</v>
       </c>
@@ -7171,8 +7307,12 @@
       <c r="F118" s="4" t="s">
         <v>273</v>
       </c>
-      <c r="G118" s="4"/>
-      <c r="H118" s="5"/>
+      <c r="G118" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="H118" s="4" t="b">
+        <v>1</v>
+      </c>
       <c r="I118" s="5" t="s">
         <v>112</v>
       </c>
